--- a/Assets/Data/Table/Convert/Projectile_Projectile.xlsx
+++ b/Assets/Data/Table/Convert/Projectile_Projectile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D562F6-B9E1-4141-9F28-9280E06895B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DDF49A-EC3C-4DFD-8C81-3F98BB5B4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectile" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,6 @@
 Projectile</t>
   </si>
   <si>
-    <t>Enum.Projectile.
-DisappearType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tb.Vfx
 Vfx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +563,10 @@
   <si>
     <t>GuidedMissile_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Projectile.
+DisappearType</t>
   </si>
 </sst>
 </file>
@@ -834,13 +833,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1135,29 +1134,29 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="26" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="15" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.25" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.19921875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.8984375" style="26" customWidth="1"/>
+    <col min="15" max="15" width="11.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" style="15" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="15" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>35</v>
@@ -1198,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>26</v>
@@ -1210,7 +1209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -1251,19 +1250,19 @@
         <v>40</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="16">
         <v>0</v>
@@ -1316,7 +1315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="16">
         <v>0</v>
@@ -1369,7 +1368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
@@ -1422,7 +1421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="16">
         <v>0</v>
@@ -1475,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1528,7 +1527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1581,18 +1580,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1619,24 +1618,24 @@
         <v>1</v>
       </c>
       <c r="M9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="O9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D15" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1655,13 +1654,13 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>

--- a/Assets/Data/Table/Convert/Projectile_Projectile.xlsx
+++ b/Assets/Data/Table/Convert/Projectile_Projectile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DDF49A-EC3C-4DFD-8C81-3F98BB5B4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF63F13-8941-4162-918D-C9A168FFD410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectile" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>이대용</author>
+    <author>tc={A9822FED-764A-4447-BB3E-ECBC8F4B4EF7}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AC4941F8-E1CB-41B6-8C55-4717133B2A52}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AC4941F8-E1CB-41B6-8C55-4717133B2A52}">
       <text>
         <r>
           <rPr>
@@ -334,6 +335,14 @@
           </rPr>
           <t>데미지</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{A9822FED-764A-4447-BB3E-ECBC8F4B4EF7}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    RuleMove &gt; MoveStepGroup_ID</t>
       </text>
     </comment>
   </commentList>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +441,6 @@
   </si>
   <si>
     <t>AttackPower_Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeTime_Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,20 +530,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireSocket_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RuleMoveProjectile_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tb.Move
-Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,6 +559,49 @@
   <si>
     <t>Em.Projectile.
 DisappearType</t>
+  </si>
+  <si>
+    <t>Effect_ToTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeTime_Sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TickTime_Sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간에 머무는 유독가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSocekts (7)</t>
+  </si>
+  <si>
+    <t>GasGrenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유독가스 수류탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas_Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSocket_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -861,6 +896,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="이대용" id="{2A756D74-C99E-4185-A06B-8511C668603B}" userId="S::ld1127@o365sen.net::ba751c71-b628-4c1e-bd4e-0868394c206b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,14 +1165,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P2" dT="2023-02-12T06:51:42.77" personId="{2A756D74-C99E-4185-A06B-8511C668603B}" id="{A9822FED-764A-4447-BB3E-ECBC8F4B4EF7}">
+    <text>RuleMove &gt; MoveStepGroup_ID</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1140,502 +1189,685 @@
     <col min="2" max="2" width="15" style="26" customWidth="1"/>
     <col min="3" max="3" width="20.69921875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.8984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.19921875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.8984375" style="26" customWidth="1"/>
-    <col min="15" max="15" width="11.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.8984375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="15" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="16.8984375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.19921875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="17.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8984375" style="26" customWidth="1"/>
+    <col min="17" max="17" width="11.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.8984375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="15" customWidth="1"/>
+    <col min="20" max="20" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="94.2" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="L1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="R2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="25" t="str">
+        <f>A3</f>
+        <v>Bullet</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f t="shared" ref="E4:E11" si="0">A4</f>
+        <v>PoisonArrow</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>OilDrum</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Tornado</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>PenetrateBullet</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>99</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>TimeGrenade</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="15">
+        <v>10</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>GuidedMissile</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="15">
+        <v>100</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>41</v>
+      <c r="P9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15">
-        <v>1</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>34</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>GasGrenade</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="25" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Gas</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="15">
+        <v>10</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="15">
+        <v>3</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D16" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15">
-        <v>1</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1</v>
-      </c>
-      <c r="L5" s="15">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>1</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>99</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="15">
-        <v>10</v>
-      </c>
-      <c r="I8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>1</v>
-      </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-      <c r="I9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D15" s="26" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
